--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,19 +153,34 @@
     <t>Prefer not to answer</t>
   </si>
   <si>
+    <t>Prefer not to Answer</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
     <t>Missing - Unknown</t>
   </si>
   <si>
     <t>Missing - Not collected</t>
   </si>
   <si>
+    <t>Missing - Not Collected</t>
+  </si>
+  <si>
     <t>Missing - Not provided</t>
   </si>
   <si>
+    <t>Missing - Not Provided</t>
+  </si>
+  <si>
     <t>Missing - Restricted access</t>
+  </si>
+  <si>
+    <t>Missing - Restricted Access</t>
   </si>
 </sst>
 </file>
@@ -542,7 +557,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -551,10 +566,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -563,10 +578,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -575,10 +590,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -587,10 +602,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -599,10 +614,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
     </row>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-gender.xlsx
+++ b/docs/CodeSystem-qc-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
